--- a/content/sheets/alumni.xlsx
+++ b/content/sheets/alumni.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="14">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -34,7 +34,13 @@
     <t xml:space="preserve">img</t>
   </si>
   <si>
-    <t xml:space="preserve">link</t>
+    <t xml:space="preserve">instagram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">linkedin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook</t>
   </si>
   <si>
     <t xml:space="preserve">position</t>
@@ -102,7 +108,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Cambria"/>
@@ -182,24 +187,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+      <selection pane="topLeft" activeCell="H21" activeCellId="0" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="26.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="0" width="26.86"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -218,30 +223,42 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2020</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>2016</v>
@@ -250,18 +267,24 @@
         <v>2020</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>2017</v>
@@ -270,18 +293,24 @@
         <v>2020</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>2016</v>
@@ -290,18 +319,24 @@
         <v>2020</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>2016</v>
@@ -310,18 +345,24 @@
         <v>2020</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>2016</v>
@@ -330,18 +371,24 @@
         <v>2020</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B8" s="2" t="n">
         <v>2016</v>
@@ -350,18 +397,24 @@
         <v>2020</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2" t="n">
         <v>2016</v>
@@ -370,25 +423,47 @@
         <v>2020</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="https://istenith.com/prody/"/>
-    <hyperlink ref="E3" r:id="rId2" display="https://istenith.com/prody/"/>
-    <hyperlink ref="E4" r:id="rId3" display="https://istenith.com/prody/"/>
-    <hyperlink ref="E5" r:id="rId4" display="https://istenith.com/prody/"/>
-    <hyperlink ref="E6" r:id="rId5" display="https://istenith.com/prody/"/>
-    <hyperlink ref="E7" r:id="rId6" display="https://istenith.com/prody/"/>
-    <hyperlink ref="E8" r:id="rId7" display="https://istenith.com/prody/"/>
-    <hyperlink ref="E9" r:id="rId8" display="https://istenith.com/prody/"/>
+    <hyperlink ref="F2" r:id="rId2" display="https://istenith.com/prody/"/>
+    <hyperlink ref="G2" r:id="rId3" display="https://istenith.com/prody/"/>
+    <hyperlink ref="E3" r:id="rId4" display="https://istenith.com/prody/"/>
+    <hyperlink ref="F3" r:id="rId5" display="https://istenith.com/prody/"/>
+    <hyperlink ref="G3" r:id="rId6" display="https://istenith.com/prody/"/>
+    <hyperlink ref="E4" r:id="rId7" display="https://istenith.com/prody/"/>
+    <hyperlink ref="F4" r:id="rId8" display="https://istenith.com/prody/"/>
+    <hyperlink ref="G4" r:id="rId9" display="https://istenith.com/prody/"/>
+    <hyperlink ref="E5" r:id="rId10" display="https://istenith.com/prody/"/>
+    <hyperlink ref="F5" r:id="rId11" display="https://istenith.com/prody/"/>
+    <hyperlink ref="G5" r:id="rId12" display="https://istenith.com/prody/"/>
+    <hyperlink ref="E6" r:id="rId13" display="https://istenith.com/prody/"/>
+    <hyperlink ref="F6" r:id="rId14" display="https://istenith.com/prody/"/>
+    <hyperlink ref="G6" r:id="rId15" display="https://istenith.com/prody/"/>
+    <hyperlink ref="E7" r:id="rId16" display="https://istenith.com/prody/"/>
+    <hyperlink ref="F7" r:id="rId17" display="https://istenith.com/prody/"/>
+    <hyperlink ref="G7" r:id="rId18" display="https://istenith.com/prody/"/>
+    <hyperlink ref="E8" r:id="rId19" display="https://istenith.com/prody/"/>
+    <hyperlink ref="F8" r:id="rId20" display="https://istenith.com/prody/"/>
+    <hyperlink ref="G8" r:id="rId21" display="https://istenith.com/prody/"/>
+    <hyperlink ref="E9" r:id="rId22" display="https://istenith.com/prody/"/>
+    <hyperlink ref="F9" r:id="rId23" display="https://istenith.com/prody/"/>
+    <hyperlink ref="G9" r:id="rId24" display="https://istenith.com/prody/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>

--- a/content/sheets/alumni.xlsx
+++ b/content/sheets/alumni.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="15">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t xml:space="preserve">Anubhav Jain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jaya Sagar</t>
   </si>
 </sst>
 </file>
@@ -193,11 +196,11 @@
   </sheetPr>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H21" activeCellId="0" sqref="H21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.7"/>
@@ -310,7 +313,7 @@
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>2016</v>

--- a/content/sheets/alumni.xlsx
+++ b/content/sheets/alumni.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="30">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -65,6 +65,51 @@
   </si>
   <si>
     <t xml:space="preserve">Jaya Sagar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vivek Gusain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marmik Sharma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mayank Singh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mukul C. Mahadik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sumit Sharma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abhiraj Singh Rathore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amol Bobade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Divyanshu Bhaik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kunal Kishore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sahaj Kulshrestha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parthivi Jain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Varan Singh Rohila</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Achyut Sharma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Priyanka Kumar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rishi Kumar</t>
   </si>
 </sst>
 </file>
@@ -160,7 +205,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -175,6 +220,10 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -194,13 +243,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.7"/>
@@ -415,7 +464,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -438,6 +487,396 @@
         <v>10</v>
       </c>
       <c r="H9" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -467,6 +906,18 @@
     <hyperlink ref="E9" r:id="rId22" display="https://istenith.com/prody/"/>
     <hyperlink ref="F9" r:id="rId23" display="https://istenith.com/prody/"/>
     <hyperlink ref="G9" r:id="rId24" display="https://istenith.com/prody/"/>
+    <hyperlink ref="E10" r:id="rId25" display="https://istenith.com/prody/"/>
+    <hyperlink ref="F10" r:id="rId26" display="https://istenith.com/prody/"/>
+    <hyperlink ref="G10" r:id="rId27" display="https://istenith.com/prody/"/>
+    <hyperlink ref="E11" r:id="rId28" display="https://istenith.com/prody/"/>
+    <hyperlink ref="F11" r:id="rId29" display="https://istenith.com/prody/"/>
+    <hyperlink ref="G11" r:id="rId30" display="https://istenith.com/prody/"/>
+    <hyperlink ref="E12" r:id="rId31" display="https://istenith.com/prody/"/>
+    <hyperlink ref="F12" r:id="rId32" display="https://istenith.com/prody/"/>
+    <hyperlink ref="G12" r:id="rId33" display="https://istenith.com/prody/"/>
+    <hyperlink ref="E13" r:id="rId34" display="https://istenith.com/prody/"/>
+    <hyperlink ref="F13" r:id="rId35" display="https://istenith.com/prody/"/>
+    <hyperlink ref="G13" r:id="rId36" display="https://istenith.com/prody/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>

--- a/content/sheets/alumni.xlsx
+++ b/content/sheets/alumni.xlsx
@@ -1,82 +1,76 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr date1904="0"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="48">
-  <si>
-    <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">end</t>
-  </si>
-  <si>
-    <t xml:space="preserve">img</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instagram</t>
-  </si>
-  <si>
-    <t xml:space="preserve">linkedin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">facebook</t>
-  </si>
-  <si>
-    <t xml:space="preserve">position</t>
-  </si>
-  <si>
-    <t xml:space="preserve">img_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">img_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">img_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desp</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>img</t>
+  </si>
+  <si>
+    <t>instagram</t>
+  </si>
+  <si>
+    <t>linkedin</t>
+  </si>
+  <si>
+    <t>facebook</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>img_1</t>
+  </si>
+  <si>
+    <t>img_2</t>
+  </si>
+  <si>
+    <t>img_3</t>
+  </si>
+  <si>
+    <t>desp</t>
   </si>
   <si>
     <t xml:space="preserve">Yash Punia</t>
   </si>
   <si>
-    <t xml:space="preserve">../members/yash.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://istenith.com/prody/</t>
+    <t>../members/yash.webp</t>
+  </si>
+  <si>
+    <t>https://istenith.com/prody/</t>
   </si>
   <si>
     <t xml:space="preserve">Development Head, Byjus</t>
   </si>
   <si>
-    <t xml:space="preserve">../alumni/sir/1.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../alumni/sir/2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../alumni/sir/3.jpg</t>
+    <t>../alumni/sir/1.jpg</t>
+  </si>
+  <si>
+    <t>../alumni/sir/2.jpg</t>
+  </si>
+  <si>
+    <t>../alumni/sir/3.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">The Principal Leader and a Spiritual Guru</t>
@@ -85,136 +79,114 @@
     <t xml:space="preserve">Akhya Rai</t>
   </si>
   <si>
-    <t xml:space="preserve">../members/akhya.jpg</t>
+    <t>../members/akhya.webp</t>
   </si>
   <si>
     <t xml:space="preserve">Abhay Raj Singh Rathod</t>
   </si>
   <si>
-    <t xml:space="preserve">../members/abhay.jpg</t>
+    <t>../members/abhay.webp</t>
   </si>
   <si>
     <t xml:space="preserve">Aditi Singh</t>
   </si>
   <si>
-    <t xml:space="preserve">../members/aditi.jpg</t>
+    <t>../members/aditi.webp</t>
   </si>
   <si>
     <t xml:space="preserve">Anshudhar Kumar Singh</t>
   </si>
   <si>
-    <t xml:space="preserve">../members/anshudhar.jpg</t>
+    <t>../members/anshudhar.webp</t>
   </si>
   <si>
     <t xml:space="preserve">Arsh Sharma</t>
   </si>
   <si>
-    <t xml:space="preserve">../members/arsh.jpg</t>
+    <t>../members/arsh.webp</t>
   </si>
   <si>
     <t xml:space="preserve">Harshit Srivastav</t>
   </si>
   <si>
-    <t xml:space="preserve">../members/harshit.jpg</t>
+    <t>../members/harshit.webp</t>
   </si>
   <si>
     <t xml:space="preserve">Nimish Lata</t>
   </si>
   <si>
-    <t xml:space="preserve">../members/nimish.jpg</t>
+    <t>../members/nimish.webp</t>
   </si>
   <si>
     <t xml:space="preserve">Rohan Nawathe</t>
   </si>
   <si>
-    <t xml:space="preserve">../members/rohan.jpg</t>
+    <t>../members/rohan.webp</t>
   </si>
   <si>
     <t xml:space="preserve">Sarvesh Srivastava</t>
   </si>
   <si>
-    <t xml:space="preserve">../members/sarvesh.jpg</t>
+    <t>../members/sarvesh.webp</t>
   </si>
   <si>
     <t xml:space="preserve">Tanuja Pal</t>
   </si>
   <si>
-    <t xml:space="preserve">../members/tanuja.jpg</t>
+    <t>../members/tanuja.webp</t>
   </si>
   <si>
     <t xml:space="preserve">Tanya Bhandari</t>
   </si>
   <si>
-    <t xml:space="preserve">../members/tanya.jpg</t>
+    <t>../members/tanya.webp</t>
   </si>
   <si>
     <t xml:space="preserve">Anika Sharma</t>
   </si>
   <si>
-    <t xml:space="preserve">../members/anika.jpg</t>
+    <t>../members/anika.webp</t>
   </si>
   <si>
     <t xml:space="preserve">Ajay Chahar</t>
   </si>
   <si>
-    <t xml:space="preserve">../members/ajay.jpg</t>
+    <t>../members/ajay.webp</t>
   </si>
   <si>
     <t xml:space="preserve">Vishal Dhiman</t>
   </si>
   <si>
-    <t xml:space="preserve">../members/vishal.jpg</t>
+    <t>../members/vishal.webp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5">
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <color indexed="64"/>
+      <sz val="10.000000"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
+      <sz val="10.000000"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <name val="Cambria"/>
+      <sz val="11.000000"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
+      <color indexed="64"/>
+      <sz val="11.000000"/>
     </font>
     <font>
-      <sz val="11"/>
       <name val="Cambria"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Cambria"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <color indexed="4"/>
+      <sz val="11.000000"/>
     </font>
   </fonts>
   <fills count="2">
@@ -226,7 +198,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -234,90 +206,488 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="6">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyProtection="0">
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyProtection="0">
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1" applyProtection="0">
+      <alignment wrapText="1"/>
+      <protection hidden="0" locked="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="">
+  <a:themeElements>
+    <a:clrScheme name="">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="">
+      <a:majorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill/>
+        <a:solidFill/>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+        </a:ln>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:srgbClr val="000000"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:srgbClr val="000000"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetPr filterMode="0">
+    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
+    <sheetView showGridLines="1" showRowColHeaders="1" showZeros="1" topLeftCell="D1" zoomScale="100" workbookViewId="0">
+      <selection activeCell="D22" activeCellId="0" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="0" width="26.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="20.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="16.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="34.06"/>
+    <col customWidth="1" min="1" max="1" width="18.28125"/>
+    <col customWidth="1" min="4" max="4" style="0" width="23.140000000000001"/>
+    <col customWidth="1" min="5" max="5" style="0" width="22.699999999999999"/>
+    <col customWidth="1" min="6" max="8" style="0" width="26.859999999999999"/>
+    <col customWidth="1" min="9" max="9" style="0" width="20.760000000000002"/>
+    <col customWidth="1" min="10" max="11" style="0" width="16.84"/>
+    <col customWidth="1" min="12" max="12" style="0" width="34.060000000000002"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" ht="14.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -342,27 +712,27 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" ht="14.25">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="2">
         <v>20</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="2">
         <v>2022</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -389,18 +759,18 @@
       <c r="K2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="0" t="s">
+      <c r="L2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" ht="14.25">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="2">
         <v>2016</v>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="C3" s="2">
         <v>2022</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -427,18 +797,18 @@
       <c r="K3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="0" t="s">
+      <c r="L3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" ht="14.25">
       <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="2">
         <v>2017</v>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="C4" s="2">
         <v>2022</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -465,18 +835,18 @@
       <c r="K4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="0" t="s">
+      <c r="L4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" ht="14.25">
       <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="2">
         <v>2016</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" s="2">
         <v>2022</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -503,18 +873,18 @@
       <c r="K5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="0" t="s">
+      <c r="L5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" ht="14.25">
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="2">
         <v>2016</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C6" s="2">
         <v>2022</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -541,18 +911,18 @@
       <c r="K6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="0" t="s">
+      <c r="L6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" ht="14.25">
       <c r="A7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="2">
         <v>2016</v>
       </c>
-      <c r="C7" s="2" t="n">
+      <c r="C7" s="2">
         <v>2022</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -579,18 +949,18 @@
       <c r="K7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="0" t="s">
+      <c r="L7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" ht="14.25">
       <c r="A8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B8" s="2">
         <v>2016</v>
       </c>
-      <c r="C8" s="2" t="n">
+      <c r="C8" s="2">
         <v>2022</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -617,18 +987,18 @@
       <c r="K8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="0" t="s">
+      <c r="L8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" ht="14.25">
       <c r="A9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B9" s="2">
         <v>2016</v>
       </c>
-      <c r="C9" s="2" t="n">
+      <c r="C9" s="2">
         <v>2022</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -655,30 +1025,30 @@
       <c r="K9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="0" t="s">
+      <c r="L9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" ht="14.25">
       <c r="A10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10">
         <v>2017</v>
       </c>
-      <c r="C10" s="2" t="n">
+      <c r="C10" s="2">
         <v>2022</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="0" t="s">
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s">
         <v>14</v>
       </c>
       <c r="H10" s="2" t="s">
@@ -693,30 +1063,30 @@
       <c r="K10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="0" t="s">
+      <c r="L10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" ht="14.25">
       <c r="A11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11">
         <v>2017</v>
       </c>
-      <c r="C11" s="2" t="n">
+      <c r="C11" s="2">
         <v>2022</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="0" t="s">
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s">
         <v>14</v>
       </c>
       <c r="H11" s="2" t="s">
@@ -731,30 +1101,30 @@
       <c r="K11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="0" t="s">
+      <c r="L11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" ht="14.25">
       <c r="A12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12">
         <v>2017</v>
       </c>
-      <c r="C12" s="2" t="n">
+      <c r="C12" s="2">
         <v>2022</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="0" t="s">
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s">
         <v>14</v>
       </c>
       <c r="H12" s="2" t="s">
@@ -769,30 +1139,30 @@
       <c r="K12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="0" t="s">
+      <c r="L12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" ht="14.25">
       <c r="A13" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13">
         <v>2017</v>
       </c>
-      <c r="C13" s="2" t="n">
+      <c r="C13" s="2">
         <v>2022</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="0" t="s">
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" t="s">
         <v>14</v>
       </c>
       <c r="H13" s="2" t="s">
@@ -807,30 +1177,30 @@
       <c r="K13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L13" s="0" t="s">
+      <c r="L13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" ht="14.25">
       <c r="A14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14">
         <v>2017</v>
       </c>
-      <c r="C14" s="2" t="n">
+      <c r="C14" s="2">
         <v>2022</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="0" t="s">
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" t="s">
         <v>14</v>
       </c>
       <c r="H14" s="2" t="s">
@@ -845,30 +1215,30 @@
       <c r="K14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L14" s="0" t="s">
+      <c r="L14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" ht="14.25">
       <c r="A15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15">
         <v>2017</v>
       </c>
-      <c r="C15" s="2" t="n">
+      <c r="C15" s="2">
         <v>2022</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="0" t="s">
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" t="s">
         <v>14</v>
       </c>
       <c r="H15" s="2" t="s">
@@ -883,30 +1253,30 @@
       <c r="K15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L15" s="0" t="s">
+      <c r="L15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" ht="14.25">
       <c r="A16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16">
         <v>2017</v>
       </c>
-      <c r="C16" s="2" t="n">
+      <c r="C16" s="2">
         <v>2022</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="0" t="s">
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" t="s">
         <v>14</v>
       </c>
       <c r="H16" s="2" t="s">
@@ -921,11 +1291,11 @@
       <c r="K16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L16" s="0" t="s">
+      <c r="L16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" ht="14.25">
       <c r="A17" s="5"/>
       <c r="D17" s="2"/>
       <c r="H17" s="2"/>
@@ -933,7 +1303,7 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" ht="14.25">
       <c r="A18" s="5"/>
       <c r="D18" s="2"/>
       <c r="H18" s="2"/>
@@ -941,7 +1311,7 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" ht="14.25">
       <c r="A19" s="5"/>
       <c r="D19" s="2"/>
       <c r="H19" s="2"/>
@@ -949,7 +1319,7 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" ht="14.25">
       <c r="A20" s="5"/>
       <c r="D20" s="2"/>
       <c r="H20" s="2"/>
@@ -957,7 +1327,7 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" ht="14.25">
       <c r="A21" s="5"/>
       <c r="D21" s="2"/>
       <c r="H21" s="2"/>
@@ -965,7 +1335,7 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" ht="14.25">
       <c r="A22" s="5"/>
       <c r="D22" s="2"/>
       <c r="H22" s="2"/>
@@ -973,7 +1343,7 @@
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" ht="14.25">
       <c r="A23" s="5"/>
       <c r="D23" s="2"/>
       <c r="H23" s="2"/>
@@ -981,7 +1351,7 @@
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" ht="14.25">
       <c r="A24" s="5"/>
       <c r="D24" s="2"/>
       <c r="H24" s="2"/>
@@ -991,49 +1361,46 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://istenith.com/prody/"/>
-    <hyperlink ref="F2" r:id="rId2" display="https://istenith.com/prody/"/>
-    <hyperlink ref="G2" r:id="rId3" display="https://istenith.com/prody/"/>
-    <hyperlink ref="E3" r:id="rId4" display="https://istenith.com/prody/"/>
-    <hyperlink ref="F3" r:id="rId5" display="https://istenith.com/prody/"/>
-    <hyperlink ref="G3" r:id="rId6" display="https://istenith.com/prody/"/>
-    <hyperlink ref="E4" r:id="rId7" display="https://istenith.com/prody/"/>
-    <hyperlink ref="F4" r:id="rId8" display="https://istenith.com/prody/"/>
-    <hyperlink ref="G4" r:id="rId9" display="https://istenith.com/prody/"/>
-    <hyperlink ref="E5" r:id="rId10" display="https://istenith.com/prody/"/>
-    <hyperlink ref="F5" r:id="rId11" display="https://istenith.com/prody/"/>
-    <hyperlink ref="G5" r:id="rId12" display="https://istenith.com/prody/"/>
-    <hyperlink ref="E6" r:id="rId13" display="https://istenith.com/prody/"/>
-    <hyperlink ref="F6" r:id="rId14" display="https://istenith.com/prody/"/>
-    <hyperlink ref="G6" r:id="rId15" display="https://istenith.com/prody/"/>
-    <hyperlink ref="E7" r:id="rId16" display="https://istenith.com/prody/"/>
-    <hyperlink ref="F7" r:id="rId17" display="https://istenith.com/prody/"/>
-    <hyperlink ref="G7" r:id="rId18" display="https://istenith.com/prody/"/>
-    <hyperlink ref="E8" r:id="rId19" display="https://istenith.com/prody/"/>
-    <hyperlink ref="F8" r:id="rId20" display="https://istenith.com/prody/"/>
-    <hyperlink ref="G8" r:id="rId21" display="https://istenith.com/prody/"/>
-    <hyperlink ref="E9" r:id="rId22" display="https://istenith.com/prody/"/>
-    <hyperlink ref="F9" r:id="rId23" display="https://istenith.com/prody/"/>
-    <hyperlink ref="G9" r:id="rId24" display="https://istenith.com/prody/"/>
-    <hyperlink ref="E10" r:id="rId25" display="https://istenith.com/prody/"/>
-    <hyperlink ref="F10" r:id="rId26" display="https://istenith.com/prody/"/>
-    <hyperlink ref="G10" r:id="rId27" display="https://istenith.com/prody/"/>
-    <hyperlink ref="E11" r:id="rId28" display="https://istenith.com/prody/"/>
-    <hyperlink ref="F11" r:id="rId29" display="https://istenith.com/prody/"/>
-    <hyperlink ref="G11" r:id="rId30" display="https://istenith.com/prody/"/>
-    <hyperlink ref="E12" r:id="rId31" display="https://istenith.com/prody/"/>
-    <hyperlink ref="F12" r:id="rId32" display="https://istenith.com/prody/"/>
-    <hyperlink ref="G12" r:id="rId33" display="https://istenith.com/prody/"/>
-    <hyperlink ref="E13" r:id="rId34" display="https://istenith.com/prody/"/>
-    <hyperlink ref="F13" r:id="rId35" display="https://istenith.com/prody/"/>
-    <hyperlink ref="G13" r:id="rId36" display="https://istenith.com/prody/"/>
+    <hyperlink r:id="rId1" ref="E2"/>
+    <hyperlink r:id="rId1" ref="F2"/>
+    <hyperlink r:id="rId1" ref="G2"/>
+    <hyperlink r:id="rId1" ref="E3"/>
+    <hyperlink r:id="rId1" ref="F3"/>
+    <hyperlink r:id="rId1" ref="G3"/>
+    <hyperlink r:id="rId1" ref="E4"/>
+    <hyperlink r:id="rId1" ref="F4"/>
+    <hyperlink r:id="rId1" ref="G4"/>
+    <hyperlink r:id="rId1" ref="E5"/>
+    <hyperlink r:id="rId1" ref="F5"/>
+    <hyperlink r:id="rId1" ref="G5"/>
+    <hyperlink r:id="rId1" ref="E6"/>
+    <hyperlink r:id="rId1" ref="F6"/>
+    <hyperlink r:id="rId1" ref="G6"/>
+    <hyperlink r:id="rId1" ref="E7"/>
+    <hyperlink r:id="rId1" ref="F7"/>
+    <hyperlink r:id="rId1" ref="G7"/>
+    <hyperlink r:id="rId1" ref="E8"/>
+    <hyperlink r:id="rId1" ref="F8"/>
+    <hyperlink r:id="rId1" ref="G8"/>
+    <hyperlink r:id="rId1" ref="E9"/>
+    <hyperlink r:id="rId1" ref="F9"/>
+    <hyperlink r:id="rId1" ref="G9"/>
+    <hyperlink r:id="rId1" ref="E10"/>
+    <hyperlink r:id="rId1" ref="F10"/>
+    <hyperlink r:id="rId1" ref="G10"/>
+    <hyperlink r:id="rId1" ref="E11"/>
+    <hyperlink r:id="rId1" ref="F11"/>
+    <hyperlink r:id="rId1" ref="G11"/>
+    <hyperlink r:id="rId1" ref="E12"/>
+    <hyperlink r:id="rId1" ref="F12"/>
+    <hyperlink r:id="rId1" ref="G12"/>
+    <hyperlink r:id="rId1" ref="E13"/>
+    <hyperlink r:id="rId1" ref="F13"/>
+    <hyperlink r:id="rId1" ref="G13"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51181102362204689" footer="0.51181102362204689"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>